--- a/MyTestData/MyTestData.xlsx
+++ b/MyTestData/MyTestData.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,13 +21,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>devuser1</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
-    <t>Testing@12</t>
+    <t>produser1</t>
+  </si>
+  <si>
+    <t>Testing@123</t>
   </si>
 </sst>
 </file>
@@ -361,7 +360,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H14" activeCellId="1" sqref="B1 H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -372,7 +371,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -380,7 +379,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/MyTestData/MyTestData.xlsx
+++ b/MyTestData/MyTestData.xlsx
@@ -24,10 +24,10 @@
     <t>s</t>
   </si>
   <si>
-    <t>produser1</t>
+    <t>praveen.kumar3</t>
   </si>
   <si>
-    <t>Testing@123</t>
+    <t>Praveen@1</t>
   </si>
 </sst>
 </file>
@@ -360,7 +360,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" activeCellId="1" sqref="B1 H14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MyTestData/MyTestData.xlsx
+++ b/MyTestData/MyTestData.xlsx
@@ -24,10 +24,10 @@
     <t>s</t>
   </si>
   <si>
-    <t>praveen.kumar3</t>
+    <t>Praveen@1</t>
   </si>
   <si>
-    <t>Praveen@1</t>
+    <t>praveenkirik</t>
   </si>
 </sst>
 </file>
@@ -359,9 +359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -371,10 +369,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/MyTestData/MyTestData.xlsx
+++ b/MyTestData/MyTestData.xlsx
@@ -27,7 +27,7 @@
     <t>Praveen@1</t>
   </si>
   <si>
-    <t>praveenkirik</t>
+    <t>praveen.kumar3</t>
   </si>
 </sst>
 </file>

--- a/MyTestData/MyTestData.xlsx
+++ b/MyTestData/MyTestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>s</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>praveen.kumar3</t>
+  </si>
+  <si>
+    <t>devuser1</t>
+  </si>
+  <si>
+    <t>Testing@123</t>
   </si>
 </sst>
 </file>
@@ -72,10 +78,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -359,7 +366,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -368,10 +377,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -382,7 +399,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MyTestData/MyTestData.xlsx
+++ b/MyTestData/MyTestData.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17145" windowHeight="5775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16275" windowHeight="5775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/MyTestData/MyTestData.xlsx
+++ b/MyTestData/MyTestData.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>s</t>
   </si>
@@ -35,6 +34,9 @@
   </si>
   <si>
     <t>Testing@123</t>
+  </si>
+  <si>
+    <t>produser1</t>
   </si>
 </sst>
 </file>
@@ -368,7 +370,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,7 +381,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
@@ -391,6 +393,14 @@
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -402,6 +412,7 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B1" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MyTestData/MyTestData.xlsx
+++ b/MyTestData/MyTestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>s</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Testing@123</t>
-  </si>
-  <si>
-    <t>produser1</t>
   </si>
 </sst>
 </file>
@@ -370,7 +367,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,7 +378,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>

--- a/MyTestData/MyTestData.xlsx
+++ b/MyTestData/MyTestData.xlsx
@@ -367,7 +367,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MyTestData/MyTestData.xlsx
+++ b/MyTestData/MyTestData.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16275" windowHeight="5775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16275" windowHeight="5775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>s</t>
   </si>
@@ -34,6 +35,21 @@
   </si>
   <si>
     <t>Testing@123</t>
+  </si>
+  <si>
+    <t>iriiisdrive.pdf</t>
+  </si>
+  <si>
+    <t>googledrive.pdf</t>
+  </si>
+  <si>
+    <t>boxdrive.pdf</t>
+  </si>
+  <si>
+    <t>dropbox.pdf</t>
+  </si>
+  <si>
+    <t>onedrive.pdf</t>
   </si>
 </sst>
 </file>
@@ -366,7 +382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -413,4 +429,112 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>